--- a/Ontwikkelingstraject/Kostenberekening en monetisation-groep 25.xlsx
+++ b/Ontwikkelingstraject/Kostenberekening en monetisation-groep 25.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Toegepaste Informatica\project\Github\Geometry-Infringement\Ontwikkelingstraject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="827" activeTab="3"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Inkomstenmodellen" sheetId="3" r:id="rId3"/>
     <sheet name="Break-Even schatting" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>Team</t>
   </si>
@@ -260,9 +255,6 @@
     <t>Golden Nuggets</t>
   </si>
   <si>
-    <t>Gemiddelde prijs</t>
-  </si>
-  <si>
     <t>Skins en upgrades kan men kopen met Golden Nuggets, die enkel verkrijgbaar zijn als men ze koopt met echt geld.</t>
   </si>
   <si>
@@ -309,16 +301,23 @@
   </si>
   <si>
     <t>Vaste kosten rest</t>
+  </si>
+  <si>
+    <t>Backgrounds</t>
+  </si>
+  <si>
+    <t>Sound packs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.0000;[Red]\-[$€-2]\ #,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -505,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -522,11 +521,11 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -536,23 +535,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -612,6 +612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -620,26 +621,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -711,46 +692,46 @@
             <c:numRef>
               <c:f>'Break-Even schatting'!$B$12:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>"€"\ #\ ##0.00</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18325.2</c:v>
+                  <c:v>26107.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36650.400000000001</c:v>
+                  <c:v>52214.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54975.600000000006</c:v>
+                  <c:v>78321.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73300.800000000003</c:v>
+                  <c:v>104428.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91626.000000000015</c:v>
+                  <c:v>130536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109951.20000000001</c:v>
+                  <c:v>156643.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128276.40000000001</c:v>
+                  <c:v>182750.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>146601.60000000001</c:v>
+                  <c:v>208857.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164926.80000000002</c:v>
+                  <c:v>234964.80000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>183252.00000000003</c:v>
+                  <c:v>261072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-577C-4CE6-823D-C85E969CDEA2}"/>
             </c:ext>
@@ -820,7 +801,7 @@
             <c:numRef>
               <c:f>'Break-Even schatting'!$C$12:$C$22</c:f>
               <c:numCache>
-                <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
+                <c:formatCode>"€"\ #,##0;[Red]"€"\ \-#,##0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>63560</c:v>
@@ -859,7 +840,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-577C-4CE6-823D-C85E969CDEA2}"/>
             </c:ext>
@@ -873,10 +854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328469888"/>
-        <c:axId val="328462344"/>
-        <c:extLst>
+        <c:axId val="710183424"/>
+        <c:axId val="678991488"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -1002,7 +984,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328469888"/>
+        <c:axId val="710183424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,6 +1016,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1042,26 +1025,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1097,10 +1060,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328462344"/>
+        <c:crossAx val="678991488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1108,7 +1071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328462344"/>
+        <c:axId val="678991488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,6 +1122,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1167,28 +1131,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="&quot;€&quot;\ #\ ##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;€&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1216,10 +1160,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328469888"/>
+        <c:crossAx val="710183424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1233,6 +1177,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1258,7 +1203,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1288,7 +1233,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2179,7 +2124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2190,7 +2135,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2805,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="42">
         <f>C7+B14</f>
@@ -2877,7 +2822,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="42">
         <f>C7</f>
@@ -2918,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2889,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="I1" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="6"/>
@@ -2974,11 +2919,11 @@
         <v>50000</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="34">
-        <f>D14</f>
-        <v>21542</v>
+        <f>D16</f>
+        <v>34512</v>
       </c>
       <c r="K3" s="21"/>
     </row>
@@ -2994,7 +2939,7 @@
       </c>
       <c r="J4" s="33">
         <f>J2+J3</f>
-        <v>30542</v>
+        <v>43512</v>
       </c>
       <c r="K4" s="21"/>
     </row>
@@ -3031,7 +2976,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>15</v>
@@ -3068,90 +3013,120 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="D13" s="30">
+        <f>C13*B13</f>
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2.99</v>
+      </c>
+      <c r="D14" s="30">
+        <f>C14*B14</f>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B15" s="24">
         <v>10000000</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C15" s="44">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D13" s="31">
-        <f>B13*C13</f>
+      <c r="D15" s="31">
+        <f>B15*C15</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="32">
-        <f>SUM(D11:D13)</f>
-        <v>21542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" s="32">
+        <f>SUM(D11:D15)</f>
+        <v>34512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5000</v>
-      </c>
-      <c r="B21" s="20">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="B22" s="20">
-        <v>7.99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="B23" s="20">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50000</v>
+      <c r="A24" s="11">
+        <v>10000</v>
       </c>
       <c r="B24" s="20">
-        <v>24.99</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>25000</v>
+      </c>
+      <c r="B25" s="20">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="20">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>100000</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B27" s="20">
         <v>34.99</v>
       </c>
     </row>
@@ -3166,7 +3141,7 @@
   <dimension ref="A3:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,7 +3155,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="16">
         <f>'Kostprijs werkuren'!I14</f>
@@ -3189,7 +3164,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="16">
         <f>Kostenposten!B16 - Kostenposten!B11</f>
@@ -3198,37 +3173,37 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="30">
         <f>Inkomstenmodellen!J4/Inkomstenmodellen!C3</f>
-        <v>0.61084000000000005</v>
+        <v>0.87024000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="43">
         <f>(B3 +B4)/B5</f>
-        <v>104053.43461462903</v>
+        <v>73037.323037323033</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="16">
-        <f>($B$3+$B$4)</f>
+        <f t="shared" ref="C12:C22" si="0">($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D12" s="16">
@@ -3253,15 +3228,15 @@
       </c>
       <c r="B13" s="30">
         <f>A13*$B$5</f>
-        <v>18325.2</v>
+        <v>26107.200000000001</v>
       </c>
       <c r="C13" s="16">
-        <f>($B$3+$B$4)</f>
+        <f t="shared" si="0"/>
         <v>63560</v>
       </c>
       <c r="D13" s="16">
         <f>B13-C13</f>
-        <v>-45234.8</v>
+        <v>-37452.800000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,16 +3244,16 @@
         <v>60000</v>
       </c>
       <c r="B14" s="30">
-        <f t="shared" ref="B14:B22" si="0">A14*$B$5</f>
-        <v>36650.400000000001</v>
+        <f t="shared" ref="B14:B22" si="1">A14*$B$5</f>
+        <v>52214.400000000001</v>
       </c>
       <c r="C14" s="16">
-        <f>($B$3+$B$4)</f>
+        <f t="shared" si="0"/>
         <v>63560</v>
       </c>
       <c r="D14" s="16">
         <f>B14-C14</f>
-        <v>-26909.599999999999</v>
+        <v>-11345.599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,16 +3261,16 @@
         <v>90000</v>
       </c>
       <c r="B15" s="30">
+        <f t="shared" si="1"/>
+        <v>78321.600000000006</v>
+      </c>
+      <c r="C15" s="16">
         <f t="shared" si="0"/>
-        <v>54975.600000000006</v>
-      </c>
-      <c r="C15" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D15" s="16">
         <f>B15-C15</f>
-        <v>-8584.3999999999942</v>
+        <v>14761.600000000006</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,16 +3278,16 @@
         <v>120000</v>
       </c>
       <c r="B16" s="30">
+        <f t="shared" si="1"/>
+        <v>104428.8</v>
+      </c>
+      <c r="C16" s="16">
         <f t="shared" si="0"/>
-        <v>73300.800000000003</v>
-      </c>
-      <c r="C16" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" ref="D16:D22" si="1">B16-C16</f>
-        <v>9740.8000000000029</v>
+        <f t="shared" ref="D16:D22" si="2">B16-C16</f>
+        <v>40868.800000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,16 +3295,16 @@
         <v>150000</v>
       </c>
       <c r="B17" s="30">
+        <f t="shared" si="1"/>
+        <v>130536</v>
+      </c>
+      <c r="C17" s="16">
         <f t="shared" si="0"/>
-        <v>91626.000000000015</v>
-      </c>
-      <c r="C17" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="1"/>
-        <v>28066.000000000015</v>
+        <f t="shared" si="2"/>
+        <v>66976</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3337,16 +3312,16 @@
         <v>180000</v>
       </c>
       <c r="B18" s="30">
+        <f t="shared" si="1"/>
+        <v>156643.20000000001</v>
+      </c>
+      <c r="C18" s="16">
         <f t="shared" si="0"/>
-        <v>109951.20000000001</v>
-      </c>
-      <c r="C18" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="1"/>
-        <v>46391.200000000012</v>
+        <f t="shared" si="2"/>
+        <v>93083.200000000012</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3354,16 +3329,16 @@
         <v>210000</v>
       </c>
       <c r="B19" s="30">
+        <f t="shared" si="1"/>
+        <v>182750.4</v>
+      </c>
+      <c r="C19" s="16">
         <f t="shared" si="0"/>
-        <v>128276.40000000001</v>
-      </c>
-      <c r="C19" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="1"/>
-        <v>64716.400000000009</v>
+        <f t="shared" si="2"/>
+        <v>119190.39999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,16 +3346,16 @@
         <v>240000</v>
       </c>
       <c r="B20" s="30">
+        <f t="shared" si="1"/>
+        <v>208857.60000000001</v>
+      </c>
+      <c r="C20" s="16">
         <f t="shared" si="0"/>
-        <v>146601.60000000001</v>
-      </c>
-      <c r="C20" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="1"/>
-        <v>83041.600000000006</v>
+        <f t="shared" si="2"/>
+        <v>145297.60000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,16 +3363,16 @@
         <v>270000</v>
       </c>
       <c r="B21" s="30">
+        <f t="shared" si="1"/>
+        <v>234964.80000000002</v>
+      </c>
+      <c r="C21" s="16">
         <f t="shared" si="0"/>
-        <v>164926.80000000002</v>
-      </c>
-      <c r="C21" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="1"/>
-        <v>101366.80000000002</v>
+        <f t="shared" si="2"/>
+        <v>171404.80000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,16 +3380,16 @@
         <v>300000</v>
       </c>
       <c r="B22" s="30">
+        <f t="shared" si="1"/>
+        <v>261072</v>
+      </c>
+      <c r="C22" s="16">
         <f t="shared" si="0"/>
-        <v>183252.00000000003</v>
-      </c>
-      <c r="C22" s="16">
-        <f>($B$3+$B$4)</f>
         <v>63560</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="1"/>
-        <v>119692.00000000003</v>
+        <f t="shared" si="2"/>
+        <v>197512</v>
       </c>
     </row>
   </sheetData>
